--- a/templates/VariableModellingTemplate.xlsx
+++ b/templates/VariableModellingTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745D00A3-4582-4739-8150-D8F42A8B5938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C697284D-2E47-4703-8A07-8143D2E4F6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28245" yWindow="3315" windowWidth="28275" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="5160" windowWidth="28275" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participant name(s)" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>use here the variable name as provided</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Applicable units of measure</t>
-  </si>
-  <si>
-    <t>controlled list (URI or terms)</t>
   </si>
   <si>
     <t>Online resource (URL)</t>
@@ -167,12 +164,6 @@
     <t>First name</t>
   </si>
   <si>
-    <t>Name of the variable to be analysed</t>
-  </si>
-  <si>
-    <t>Your chosen preferred label</t>
-  </si>
-  <si>
     <t>you might want to follow a specific community practice</t>
   </si>
   <si>
@@ -202,16 +193,35 @@
   <si>
     <t>not applicable</t>
   </si>
+  <si>
+    <t>Chosen Preferred Label</t>
+  </si>
+  <si>
+    <t>Provided Variable Name</t>
+  </si>
+  <si>
+    <t>Controlled List (URI or Terms)</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,53 +351,54 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -604,23 +615,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999EB130-8DA2-40C8-89ED-B3FD7C539E11}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>44</v>
+      <c r="D1" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -632,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -664,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -673,46 +687,46 @@
         <v>2</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>6</v>
@@ -728,10 +742,10 @@
     </row>
     <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -740,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -773,16 +787,16 @@
         <v>18</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -795,69 +809,69 @@
     </row>
     <row r="3" spans="1:27" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>22</v>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="G3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>51</v>
+      <c r="I3" s="14" t="s">
+        <v>31</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>24</v>
+      <c r="J3" s="13" t="s">
+        <v>33</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="K3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>31</v>
+      <c r="M3" s="14" t="s">
+        <v>35</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>32</v>
+      <c r="N3" s="13" t="s">
+        <v>28</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>34</v>
+      <c r="O3" s="14" t="s">
+        <v>36</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>33</v>
+      <c r="P3" s="13" t="s">
+        <v>50</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L4" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="M4" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15824,9 +15838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5BFB33-BDB7-434E-98DC-DD6FE5C7E883}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15852,7 +15864,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -15861,46 +15873,46 @@
         <v>2</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>6</v>
@@ -15916,10 +15928,10 @@
     </row>
     <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -15928,7 +15940,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -15961,16 +15973,16 @@
         <v>18</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>

--- a/templates/VariableModellingTemplate.xlsx
+++ b/templates/VariableModellingTemplate.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C697284D-2E47-4703-8A07-8143D2E4F6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B6D3BA-3FDE-43B2-B591-7C8E415D48A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="5160" windowWidth="28275" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="885" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participant name(s)" sheetId="2" r:id="rId1"/>
-    <sheet name="variable example" sheetId="1" r:id="rId2"/>
+    <sheet name="water level of lake (example)" sheetId="1" r:id="rId2"/>
     <sheet name="variable template" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999EB130-8DA2-40C8-89ED-B3FD7C539E11}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
